--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/10/seed5/result_data_KNN.xlsx
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>6.534000000000001</v>
+        <v>6.305</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.512</v>
+        <v>-21.489</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.94</v>
+        <v>8.472</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.226</v>
+        <v>-12.572</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.17</v>
+        <v>5.142</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-20.788</v>
+        <v>-21.243</v>
       </c>
       <c r="B32" t="n">
-        <v>9.125999999999999</v>
+        <v>7.063</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>7.434</v>
+        <v>6.952000000000001</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-21.04</v>
+        <v>-20.724</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -961,13 +961,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-20.582</v>
+        <v>-20.354</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-11.088</v>
+        <v>-11.836</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>9.529999999999998</v>
+        <v>9.103999999999999</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.99</v>
+        <v>-21.728</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.546</v>
+        <v>-11.701</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.23</v>
+        <v>-21.37</v>
       </c>
       <c r="B54" t="n">
-        <v>5.94</v>
+        <v>5.406000000000001</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.964</v>
+        <v>-22.184</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.586</v>
+        <v>-21.531</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.62</v>
+        <v>-21.422</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.42</v>
+        <v>-21.695</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1527,7 +1527,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.856</v>
+        <v>-12.539</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1597,7 +1597,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.506</v>
+        <v>-13.409</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-13.368</v>
+        <v>-12.335</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.428</v>
+        <v>-13.725</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.812</v>
+        <v>-20.811</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1779,7 +1779,7 @@
         <v>4.26</v>
       </c>
       <c r="C96" t="n">
-        <v>-10.216</v>
+        <v>-10.156</v>
       </c>
       <c r="D96" t="n">
         <v>-5.14</v>
@@ -1790,7 +1790,7 @@
         <v>-21.33</v>
       </c>
       <c r="B97" t="n">
-        <v>5.296000000000001</v>
+        <v>5.391000000000001</v>
       </c>
       <c r="C97" t="n">
         <v>-10.47</v>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.774</v>
+        <v>-21.282</v>
       </c>
       <c r="B99" t="n">
-        <v>5.581999999999999</v>
+        <v>5.671000000000001</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>5.268</v>
+        <v>5.496</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1877,7 +1877,7 @@
         <v>5.09</v>
       </c>
       <c r="C103" t="n">
-        <v>-13.288</v>
+        <v>-12.411</v>
       </c>
       <c r="D103" t="n">
         <v>-7.71</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.174</v>
+        <v>-21.437</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
